--- a/biology/Zoologie/Cnesterodon/Cnesterodon.xlsx
+++ b/biology/Zoologie/Cnesterodon/Cnesterodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cnesterodon est un genre de poissons d'eau douce ou saumâtre de la famille des Poeciliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (28 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (28 novembre 2023) :
 Cnesterodon brevirostratus Rosa &amp; Costa, 1993
 Cnesterodon carnegiei Haseman, 1911
 Cnesterodon decemmaculatus (Jenyns, 1842)
@@ -551,9 +565,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cnesterodon Garman, 1895[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cnesterodon Garman, 1895,.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) S. Garman, « The cyprinodonts », Memoirs of the Museum of Comparative Zoology, Cambridge, Muséum de zoologie comparée de l'université Harvard, vol. 19, no 1,‎ 1895, p. 1-179 (ISSN 1067-8611, OCLC 6085117, DOI 10.5962/BHL.TITLE.13764, lire en ligne)</t>
         </is>
